--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024A0D65-F675-4FD4-BAA2-87BEE411AE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3724EDC9-2BDB-46CA-872E-60A380B1596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1620" windowWidth="8790" windowHeight="8490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="二重化モード" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +26,23 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -79,22 +93,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581C37A-49F5-4B35-87DF-FC83202F115D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DA7B0E-99E3-4B23-B9A2-02772814AE85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -102,12 +116,24 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="1171575"/>
-          <a:ext cx="2124075" cy="1133475"/>
+          <a:off x="1238250" y="2667000"/>
+          <a:ext cx="1200150" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -131,8 +157,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Label</a:t>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PLC</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -141,23 +173,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
+        <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86C2DA9-E627-44E7-872F-D0B1D04920E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB26E9CF-773C-4187-A593-39130477C342}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -165,12 +197,122 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4143375" y="1200150"/>
-          <a:ext cx="2124075" cy="1133475"/>
+          <a:off x="3025588" y="762000"/>
+          <a:ext cx="4235824" cy="3048000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PA-PANEL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> server</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586068</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0190AF-A42F-4AC4-A391-F28E95565D9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3630706" y="2667000"/>
+          <a:ext cx="1191186" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -194,8 +336,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Label</a:t>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Driver</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -204,40 +352,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586068</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586068</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADF6296-C14E-4EE7-B5CC-8AB4372C9D2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753140C7-0EDC-403C-82A4-C918535A144E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:stCxn id="10" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1738313"/>
-          <a:ext cx="714375" cy="28575"/>
+          <a:off x="4821892" y="2857500"/>
+          <a:ext cx="605117" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -256,6 +408,252 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FA5102-CE47-4201-AAF1-AA2765382948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2420471" y="2857500"/>
+          <a:ext cx="1210235" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600635</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D65652-8DB2-4339-8633-7D9C2AC74E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3626223" y="2147047"/>
+          <a:ext cx="1819836" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>二重化モード</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>181612</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAABE838-5EAE-4ABD-B6BD-95AA199D379C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="609600" y="762000"/>
+          <a:ext cx="3762900" cy="7039612"/>
+          <a:chOff x="609600" y="762000"/>
+          <a:chExt cx="3762900" cy="7039612"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E9E7BD-10C3-468D-8B6D-A1113F051471}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="3238500"/>
+            <a:ext cx="3762900" cy="4563112"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0527AA2-1AB1-4E1C-8078-79262EE02686}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="609600" y="762000"/>
+            <a:ext cx="3734321" cy="2105319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -526,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,4 +933,444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153A056E-0755-44B7-9F49-5EF464A93925}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106E3135-97BA-4E99-99DF-2700AEEB18E2}">
+  <dimension ref="A3:M30"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>